--- a/db_editorial_manager.xlsx
+++ b/db_editorial_manager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ant/Library/CloudStorage/Dropbox/2 actions/Personales/Data AlterBiblio/Nefrología/Editorial manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1795957-B0AB-2D49-A5BF-692A7C8343B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781981B-010A-9E49-B746-9809E341B954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33360" windowHeight="23800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22640" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10535,7 +10535,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{361D07DE-85E8-0241-8BF1-11CBD9463B33}" name="Table1" displayName="Table1" ref="A1:BK992" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:BK992" xr:uid="{361D07DE-85E8-0241-8BF1-11CBD9463B33}"/>
+  <autoFilter ref="A1:BK992" xr:uid="{361D07DE-85E8-0241-8BF1-11CBD9463B33}">
+    <filterColumn colId="62">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="63">
     <tableColumn id="1" xr3:uid="{6C9C1564-9D82-0649-A565-35596E2D9C61}" name="data_identity"/>
     <tableColumn id="2" xr3:uid="{CB370555-BCD1-4F4D-861C-F88009C5D29F}" name="numero_manuscrito"/>
@@ -10929,7 +10933,7 @@
   <dimension ref="A1:BK992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BK992"/>
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11176,7 +11180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -11298,7 +11302,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -11952,7 +11956,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -12050,7 +12054,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -12279,7 +12283,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>73</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -12478,7 +12482,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>75</v>
       </c>
@@ -12582,7 +12586,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>76</v>
       </c>
@@ -12784,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>78</v>
       </c>
@@ -12971,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>80</v>
       </c>
@@ -13490,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>92</v>
       </c>
@@ -13534,7 +13538,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>93</v>
       </c>
@@ -13578,7 +13582,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="33" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>94</v>
       </c>
@@ -13663,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>96</v>
       </c>
@@ -13707,7 +13711,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="36" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>97</v>
       </c>
@@ -13827,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>100</v>
       </c>
@@ -13871,7 +13875,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="40" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>103</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="43" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>104</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="44" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>105</v>
       </c>
@@ -14082,7 +14086,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="45" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>106</v>
       </c>
@@ -14126,7 +14130,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="46" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>107</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="47" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="48" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>108</v>
       </c>
@@ -14255,7 +14259,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="49" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>109</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="50" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>110</v>
       </c>
@@ -14343,7 +14347,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="51" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>111</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="52" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>111</v>
       </c>
@@ -14560,7 +14564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>115</v>
       </c>
@@ -14601,7 +14605,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="57" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>116</v>
       </c>
@@ -14645,7 +14649,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="58" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>117</v>
       </c>
@@ -14777,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>120</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="62" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -14865,7 +14869,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="63" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>122</v>
       </c>
@@ -14909,7 +14913,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="64" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -14953,7 +14957,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="65" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>124</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>127</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="69" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>128</v>
       </c>
@@ -15208,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>130</v>
       </c>
@@ -15311,7 +15315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>132</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="74" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>133</v>
       </c>
@@ -15399,7 +15403,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="75" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>134</v>
       </c>
@@ -15490,7 +15494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>136</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="78" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>137</v>
       </c>
@@ -15578,7 +15582,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="79" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>138</v>
       </c>
@@ -15666,7 +15670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>140</v>
       </c>
@@ -15816,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>143</v>
       </c>
@@ -15910,7 +15914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>145</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>147</v>
       </c>
@@ -16074,7 +16078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>149</v>
       </c>
@@ -16118,7 +16122,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="91" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>150</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="92" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>151</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>153</v>
       </c>
@@ -16350,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>155</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="97" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>156</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="98" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>157</v>
       </c>
@@ -16485,7 +16489,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="99" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>158</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="100" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>159</v>
       </c>
@@ -16644,7 +16648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>161</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="103" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>162</v>
       </c>
@@ -16732,7 +16736,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="104" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>163</v>
       </c>
@@ -16776,7 +16780,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="105" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>164</v>
       </c>
@@ -16820,7 +16824,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="106" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>165</v>
       </c>
@@ -17014,7 +17018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>169</v>
       </c>
@@ -17058,7 +17062,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="111" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>170</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="112" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>171</v>
       </c>
@@ -17161,7 +17165,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="113" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>172</v>
       </c>
@@ -17205,7 +17209,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="114" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>173</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="115" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>174</v>
       </c>
@@ -17293,7 +17297,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="116" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>175</v>
       </c>
@@ -17393,7 +17397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>177</v>
       </c>
@@ -17558,7 +17562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>180</v>
       </c>
@@ -17599,7 +17603,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="122" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>181</v>
       </c>
@@ -17643,7 +17647,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="123" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>182</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>184</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="126" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>185</v>
       </c>
@@ -17819,7 +17823,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="127" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>186</v>
       </c>
@@ -18031,7 +18035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>190</v>
       </c>
@@ -18075,7 +18079,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="132" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>191</v>
       </c>
@@ -18119,7 +18123,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="133" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>192</v>
       </c>
@@ -18163,7 +18167,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="134" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>193</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>197</v>
       </c>
@@ -18404,7 +18408,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="139" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>198</v>
       </c>
@@ -18643,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>202</v>
       </c>
@@ -18743,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>204</v>
       </c>
@@ -18787,7 +18791,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="146" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>205</v>
       </c>
@@ -18890,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>207</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="149" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>208</v>
       </c>
@@ -18978,7 +18982,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="150" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>209</v>
       </c>
@@ -19022,7 +19026,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="151" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>210</v>
       </c>
@@ -19066,7 +19070,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="152" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>211</v>
       </c>
@@ -19189,7 +19193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>214</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="156" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>215</v>
       </c>
@@ -19277,7 +19281,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="157" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>216</v>
       </c>
@@ -19477,7 +19481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>220</v>
       </c>
@@ -19521,7 +19525,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="162" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>221</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="163" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>222</v>
       </c>
@@ -19674,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>224</v>
       </c>
@@ -19718,7 +19722,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="166" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>225</v>
       </c>
@@ -19762,7 +19766,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="167" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>226</v>
       </c>
@@ -19806,7 +19810,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="168" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>227</v>
       </c>
@@ -19850,7 +19854,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="169" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>228</v>
       </c>
@@ -19894,7 +19898,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="170" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>229</v>
       </c>
@@ -19938,7 +19942,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="171" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>230</v>
       </c>
@@ -19982,7 +19986,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="172" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>231</v>
       </c>
@@ -20032,7 +20036,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="173" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>232</v>
       </c>
@@ -20117,7 +20121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>234</v>
       </c>
@@ -20158,7 +20162,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="176" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>235</v>
       </c>
@@ -20202,7 +20206,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="177" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>236</v>
       </c>
@@ -20246,7 +20250,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="178" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>237</v>
       </c>
@@ -20287,7 +20291,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="179" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>238</v>
       </c>
@@ -20331,7 +20335,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="180" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>239</v>
       </c>
@@ -20425,7 +20429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>241</v>
       </c>
@@ -20507,7 +20511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>243</v>
       </c>
@@ -20551,7 +20555,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="185" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>244</v>
       </c>
@@ -20695,7 +20699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>247</v>
       </c>
@@ -20739,7 +20743,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="189" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>248</v>
       </c>
@@ -20783,7 +20787,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="190" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>249</v>
       </c>
@@ -20886,7 +20890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>251</v>
       </c>
@@ -20930,7 +20934,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="193" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>252</v>
       </c>
@@ -20989,7 +20993,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="194" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>253</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="195" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>254</v>
       </c>
@@ -21104,7 +21108,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="196" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>255</v>
       </c>
@@ -21145,7 +21149,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="197" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>256</v>
       </c>
@@ -21189,7 +21193,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="198" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>257</v>
       </c>
@@ -21233,7 +21237,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="199" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>258</v>
       </c>
@@ -21389,7 +21393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>261</v>
       </c>
@@ -21548,7 +21552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>264</v>
       </c>
@@ -21592,7 +21596,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="206" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>265</v>
       </c>
@@ -21636,7 +21640,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="207" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>266</v>
       </c>
@@ -21981,7 +21985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>272</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="214" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>273</v>
       </c>
@@ -22090,7 +22094,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="215" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>274</v>
       </c>
@@ -22134,7 +22138,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="216" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>275</v>
       </c>
@@ -22178,7 +22182,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="217" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>276</v>
       </c>
@@ -22222,7 +22226,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="218" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>277</v>
       </c>
@@ -22266,7 +22270,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="219" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>278</v>
       </c>
@@ -22322,7 +22326,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="220" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>279</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="221" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>280</v>
       </c>
@@ -22416,7 +22420,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="222" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>281</v>
       </c>
@@ -22460,7 +22464,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="223" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>282</v>
       </c>
@@ -22528,7 +22532,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="224" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>283</v>
       </c>
@@ -22667,7 +22671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>285</v>
       </c>
@@ -22711,7 +22715,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="227" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>286</v>
       </c>
@@ -22770,7 +22774,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="228" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>287</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="229" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>288</v>
       </c>
@@ -22873,7 +22877,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="230" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>289</v>
       </c>
@@ -22917,7 +22921,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="231" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>290</v>
       </c>
@@ -23000,7 +23004,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="232" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>291</v>
       </c>
@@ -23044,7 +23048,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="233" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>292</v>
       </c>
@@ -23088,7 +23092,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="234" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>293</v>
       </c>
@@ -23132,7 +23136,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="235" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>294</v>
       </c>
@@ -23176,7 +23180,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="236" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>295</v>
       </c>
@@ -23235,7 +23239,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="237" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>296</v>
       </c>
@@ -23303,7 +23307,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="238" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>296</v>
       </c>
@@ -23347,7 +23351,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="239" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>297</v>
       </c>
@@ -23391,7 +23395,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="240" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>298</v>
       </c>
@@ -23435,7 +23439,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="241" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>299</v>
       </c>
@@ -23491,7 +23495,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="242" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>300</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="243" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>301</v>
       </c>
@@ -23609,7 +23613,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="244" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>302</v>
       </c>
@@ -23653,7 +23657,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="245" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>303</v>
       </c>
@@ -23697,7 +23701,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="246" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>304</v>
       </c>
@@ -23741,7 +23745,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="247" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>305</v>
       </c>
@@ -23785,7 +23789,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="248" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>306</v>
       </c>
@@ -23829,7 +23833,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="249" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>307</v>
       </c>
@@ -23921,7 +23925,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="250" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>308</v>
       </c>
@@ -24066,7 +24070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>310</v>
       </c>
@@ -24181,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>312</v>
       </c>
@@ -24225,7 +24229,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="255" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>313</v>
       </c>
@@ -24269,7 +24273,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="256" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>314</v>
       </c>
@@ -24313,7 +24317,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="257" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>315</v>
       </c>
@@ -24357,7 +24361,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="258" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>316</v>
       </c>
@@ -24472,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>318</v>
       </c>
@@ -24575,7 +24579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>320</v>
       </c>
@@ -24678,7 +24682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>322</v>
       </c>
@@ -24722,7 +24726,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="265" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>323</v>
       </c>
@@ -24766,7 +24770,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="266" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>324</v>
       </c>
@@ -24810,7 +24814,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="267" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>325</v>
       </c>
@@ -24913,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>327</v>
       </c>
@@ -24972,7 +24976,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="270" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>328</v>
       </c>
@@ -25057,7 +25061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>330</v>
       </c>
@@ -25101,7 +25105,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="273" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>331</v>
       </c>
@@ -25145,7 +25149,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="274" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>332</v>
       </c>
@@ -25189,7 +25193,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="275" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>333</v>
       </c>
@@ -25292,7 +25296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>335</v>
       </c>
@@ -25336,7 +25340,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="278" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>336</v>
       </c>
@@ -25380,7 +25384,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="279" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>337</v>
       </c>
@@ -25424,7 +25428,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="280" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>338</v>
       </c>
@@ -25539,7 +25543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>340</v>
       </c>
@@ -25583,7 +25587,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="283" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>341</v>
       </c>
@@ -25639,7 +25643,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="284" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>342</v>
       </c>
@@ -25683,7 +25687,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="285" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>343</v>
       </c>
@@ -25768,7 +25772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>345</v>
       </c>
@@ -25836,7 +25840,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="288" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>346</v>
       </c>
@@ -25939,7 +25943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>348</v>
       </c>
@@ -25983,7 +25987,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="291" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>349</v>
       </c>
@@ -26042,7 +26046,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="292" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>350</v>
       </c>
@@ -26092,7 +26096,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="293" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>351</v>
       </c>
@@ -26151,7 +26155,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="294" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>352</v>
       </c>
@@ -26213,7 +26217,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="295" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>353</v>
       </c>
@@ -26254,7 +26258,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="296" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>354</v>
       </c>
@@ -26295,7 +26299,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="297" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>355</v>
       </c>
@@ -26339,7 +26343,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="298" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>356</v>
       </c>
@@ -26442,7 +26446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>358</v>
       </c>
@@ -26527,7 +26531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>360</v>
       </c>
@@ -26586,7 +26590,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="303" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>361</v>
       </c>
@@ -26630,7 +26634,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="304" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>362</v>
       </c>
@@ -26689,7 +26693,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="305" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>363</v>
       </c>
@@ -26733,7 +26737,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="306" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>364</v>
       </c>
@@ -26777,7 +26781,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="307" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>365</v>
       </c>
@@ -26842,7 +26846,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="308" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>366</v>
       </c>
@@ -26966,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>368</v>
       </c>
@@ -27010,7 +27014,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="311" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>369</v>
       </c>
@@ -27054,7 +27058,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="312" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>370</v>
       </c>
@@ -27098,7 +27102,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="313" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>371</v>
       </c>
@@ -27169,7 +27173,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="314" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>372</v>
       </c>
@@ -27234,7 +27238,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="315" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>373</v>
       </c>
@@ -27278,7 +27282,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="316" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>374</v>
       </c>
@@ -27322,7 +27326,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="317" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>375</v>
       </c>
@@ -27366,7 +27370,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="318" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>376</v>
       </c>
@@ -27410,7 +27414,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="319" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>377</v>
       </c>
@@ -27454,7 +27458,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="320" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>378</v>
       </c>
@@ -27498,7 +27502,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="321" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>379</v>
       </c>
@@ -27542,7 +27546,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="322" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>380</v>
       </c>
@@ -27586,7 +27590,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="323" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>381</v>
       </c>
@@ -27680,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>383</v>
       </c>
@@ -27724,7 +27728,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="326" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>384</v>
       </c>
@@ -27943,7 +27947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>387</v>
       </c>
@@ -28052,7 +28056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>389</v>
       </c>
@@ -28096,7 +28100,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="332" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>390</v>
       </c>
@@ -28140,7 +28144,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="333" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>391</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="334" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>392</v>
       </c>
@@ -28228,7 +28232,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="335" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>393</v>
       </c>
@@ -28272,7 +28276,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="336" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>394</v>
       </c>
@@ -28331,7 +28335,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="337" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>395</v>
       </c>
@@ -28375,7 +28379,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="338" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>396</v>
       </c>
@@ -28747,7 +28751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>401</v>
       </c>
@@ -28815,7 +28819,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="345" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>402</v>
       </c>
@@ -28859,7 +28863,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="346" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>403</v>
       </c>
@@ -28956,7 +28960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>405</v>
       </c>
@@ -29015,7 +29019,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="349" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>406</v>
       </c>
@@ -29068,7 +29072,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="350" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>407</v>
       </c>
@@ -29231,7 +29235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>409</v>
       </c>
@@ -29275,7 +29279,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="353" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>410</v>
       </c>
@@ -29361,7 +29365,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="354" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>411</v>
       </c>
@@ -29405,7 +29409,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="355" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>412</v>
       </c>
@@ -29464,7 +29468,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="356" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>413</v>
       </c>
@@ -29508,7 +29512,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="357" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>414</v>
       </c>
@@ -29567,7 +29571,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="358" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>415</v>
       </c>
@@ -29658,7 +29662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>417</v>
       </c>
@@ -29806,7 +29810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>419</v>
       </c>
@@ -29850,7 +29854,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="363" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>420</v>
       </c>
@@ -29894,7 +29898,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="364" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>421</v>
       </c>
@@ -29953,7 +29957,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="365" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>422</v>
       </c>
@@ -29997,7 +30001,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="366" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>423</v>
       </c>
@@ -30041,7 +30045,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="367" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>424</v>
       </c>
@@ -30085,7 +30089,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="368" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>425</v>
       </c>
@@ -30211,7 +30215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>427</v>
       </c>
@@ -30255,7 +30259,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="372" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>428</v>
       </c>
@@ -30314,7 +30318,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="373" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>429</v>
       </c>
@@ -30358,7 +30362,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="374" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>430</v>
       </c>
@@ -30402,7 +30406,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="375" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>431</v>
       </c>
@@ -30476,7 +30480,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="376" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>432</v>
       </c>
@@ -30600,7 +30604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>434</v>
       </c>
@@ -30674,7 +30678,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="379" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>435</v>
       </c>
@@ -30718,7 +30722,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="380" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>436</v>
       </c>
@@ -30777,7 +30781,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="381" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>437</v>
       </c>
@@ -30821,7 +30825,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="382" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>438</v>
       </c>
@@ -30865,7 +30869,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="383" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>439</v>
       </c>
@@ -30909,7 +30913,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="384" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>440</v>
       </c>
@@ -30968,7 +30972,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="385" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>441</v>
       </c>
@@ -31018,7 +31022,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="386" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>442</v>
       </c>
@@ -31118,7 +31122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>444</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="389" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>445</v>
       </c>
@@ -31221,7 +31225,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="390" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>446</v>
       </c>
@@ -31265,7 +31269,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="391" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>447</v>
       </c>
@@ -31391,7 +31395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>449</v>
       </c>
@@ -31435,7 +31439,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="395" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>450</v>
       </c>
@@ -31479,7 +31483,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="396" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>451</v>
       </c>
@@ -31523,7 +31527,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="397" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>452</v>
       </c>
@@ -31567,7 +31571,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="398" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>453</v>
       </c>
@@ -31611,7 +31615,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="399" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>454</v>
       </c>
@@ -31670,7 +31674,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="400" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>455</v>
       </c>
@@ -31755,7 +31759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>457</v>
       </c>
@@ -31799,7 +31803,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="403" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>458</v>
       </c>
@@ -31884,7 +31888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>460</v>
       </c>
@@ -31928,7 +31932,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="406" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>461</v>
       </c>
@@ -31975,7 +31979,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="407" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>462</v>
       </c>
@@ -32101,7 +32105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>465</v>
       </c>
@@ -32169,7 +32173,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="411" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>466</v>
       </c>
@@ -32261,7 +32265,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="412" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>467</v>
       </c>
@@ -32305,7 +32309,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="413" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>468</v>
       </c>
@@ -32349,7 +32353,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="414" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>469</v>
       </c>
@@ -32393,7 +32397,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="415" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>470</v>
       </c>
@@ -32437,7 +32441,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="416" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>471</v>
       </c>
@@ -32481,7 +32485,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="417" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>472</v>
       </c>
@@ -32525,7 +32529,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="418" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>473</v>
       </c>
@@ -32569,7 +32573,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="419" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>474</v>
       </c>
@@ -32613,7 +32617,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="420" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>475</v>
       </c>
@@ -32755,7 +32759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>477</v>
       </c>
@@ -32838,7 +32842,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="423" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>478</v>
       </c>
@@ -32900,7 +32904,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="424" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>479</v>
       </c>
@@ -32944,7 +32948,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="425" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>480</v>
       </c>
@@ -33003,7 +33007,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="426" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>481</v>
       </c>
@@ -33050,7 +33054,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="427" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>482</v>
       </c>
@@ -33094,7 +33098,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="428" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>483</v>
       </c>
@@ -33279,7 +33283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>487</v>
       </c>
@@ -33347,7 +33351,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="433" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>488</v>
       </c>
@@ -33462,7 +33466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>490</v>
       </c>
@@ -33506,7 +33510,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="436" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>491</v>
       </c>
@@ -33589,7 +33593,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="437" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>492</v>
       </c>
@@ -33633,7 +33637,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="438" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>493</v>
       </c>
@@ -33733,7 +33737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>495</v>
       </c>
@@ -33774,7 +33778,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="441" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>496</v>
       </c>
@@ -33815,7 +33819,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="442" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>497</v>
       </c>
@@ -33910,7 +33914,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="443" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>498</v>
       </c>
@@ -33957,7 +33961,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="444" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>499</v>
       </c>
@@ -34022,7 +34026,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="445" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>500</v>
       </c>
@@ -34066,7 +34070,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="446" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>501</v>
       </c>
@@ -34110,7 +34114,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="447" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>502</v>
       </c>
@@ -34196,7 +34200,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="448" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>503</v>
       </c>
@@ -34240,7 +34244,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="449" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>504</v>
       </c>
@@ -34308,7 +34312,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="450" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>505</v>
       </c>
@@ -34349,7 +34353,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="451" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>506</v>
       </c>
@@ -34479,7 +34483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>508</v>
       </c>
@@ -34517,7 +34521,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="454" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>509</v>
       </c>
@@ -34564,7 +34568,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="455" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>510</v>
       </c>
@@ -34602,7 +34606,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="456" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>511</v>
       </c>
@@ -34682,7 +34686,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="457" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>512</v>
       </c>
@@ -34723,7 +34727,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="458" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>513</v>
       </c>
@@ -34785,7 +34789,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="459" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>514</v>
       </c>
@@ -34826,7 +34830,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="460" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>515</v>
       </c>
@@ -34867,7 +34871,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="461" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>516</v>
       </c>
@@ -34947,7 +34951,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="462" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>517</v>
       </c>
@@ -35098,7 +35102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>519</v>
       </c>
@@ -35157,7 +35161,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="465" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>520</v>
       </c>
@@ -35198,7 +35202,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="466" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>521</v>
       </c>
@@ -35239,7 +35243,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="467" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>522</v>
       </c>
@@ -35327,7 +35331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>524</v>
       </c>
@@ -35401,7 +35405,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="470" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>525</v>
       </c>
@@ -35439,7 +35443,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="471" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>526</v>
       </c>
@@ -35507,7 +35511,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="472" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>527</v>
       </c>
@@ -35584,7 +35588,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="473" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>527</v>
       </c>
@@ -35643,7 +35647,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="474" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>528</v>
       </c>
@@ -35681,7 +35685,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="475" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>529</v>
       </c>
@@ -35728,7 +35732,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="476" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>530</v>
       </c>
@@ -35811,7 +35815,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="477" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>531</v>
       </c>
@@ -35849,7 +35853,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="478" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>532</v>
       </c>
@@ -35887,7 +35891,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="479" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>533</v>
       </c>
@@ -35925,7 +35929,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="480" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>534</v>
       </c>
@@ -35963,7 +35967,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="481" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>535</v>
       </c>
@@ -36028,7 +36032,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="482" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>536</v>
       </c>
@@ -36066,7 +36070,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="483" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>537</v>
       </c>
@@ -36116,7 +36120,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="484" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>538</v>
       </c>
@@ -36154,7 +36158,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="485" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>539</v>
       </c>
@@ -36213,7 +36217,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="486" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>540</v>
       </c>
@@ -36257,7 +36261,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="487" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>541</v>
       </c>
@@ -36390,7 +36394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>543</v>
       </c>
@@ -36437,7 +36441,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="490" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>544</v>
       </c>
@@ -36475,7 +36479,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="491" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>545</v>
       </c>
@@ -36513,7 +36517,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="492" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>546</v>
       </c>
@@ -36551,7 +36555,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="493" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>547</v>
       </c>
@@ -36616,7 +36620,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="494" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>548</v>
       </c>
@@ -36675,7 +36679,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="495" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>549</v>
       </c>
@@ -36734,7 +36738,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="496" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>550</v>
       </c>
@@ -36882,7 +36886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>552</v>
       </c>
@@ -36941,7 +36945,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="499" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>553</v>
       </c>
@@ -37039,7 +37043,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="500" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>554</v>
       </c>
@@ -37077,7 +37081,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="501" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>555</v>
       </c>
@@ -37124,7 +37128,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="502" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>556</v>
       </c>
@@ -37162,7 +37166,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="503" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>557</v>
       </c>
@@ -37206,7 +37210,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="504" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>558</v>
       </c>
@@ -37244,7 +37248,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="505" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>559</v>
       </c>
@@ -37282,7 +37286,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="506" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>560</v>
       </c>
@@ -37320,7 +37324,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="507" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>561</v>
       </c>
@@ -37358,7 +37362,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="508" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>562</v>
       </c>
@@ -37396,7 +37400,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="509" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>563</v>
       </c>
@@ -37434,7 +37438,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="510" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>564</v>
       </c>
@@ -37472,7 +37476,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="511" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>565</v>
       </c>
@@ -37516,7 +37520,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="512" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>566</v>
       </c>
@@ -37554,7 +37558,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="513" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>567</v>
       </c>
@@ -37601,7 +37605,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="514" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>568</v>
       </c>
@@ -37645,7 +37649,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="515" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>569</v>
       </c>
@@ -37689,7 +37693,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="516" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>570</v>
       </c>
@@ -37772,7 +37776,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="517" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>571</v>
       </c>
@@ -37810,7 +37814,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="518" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>572</v>
       </c>
@@ -37848,7 +37852,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="519" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>573</v>
       </c>
@@ -37886,7 +37890,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="520" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>574</v>
       </c>
@@ -37924,7 +37928,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="521" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>575</v>
       </c>
@@ -38001,7 +38005,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="522" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>576</v>
       </c>
@@ -38039,7 +38043,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="523" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>577</v>
       </c>
@@ -38113,7 +38117,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="524" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>578</v>
       </c>
@@ -38151,7 +38155,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="525" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>579</v>
       </c>
@@ -38189,7 +38193,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="526" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>580</v>
       </c>
@@ -38251,7 +38255,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="527" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>581</v>
       </c>
@@ -38313,7 +38317,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="528" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>582</v>
       </c>
@@ -38360,7 +38364,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="529" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>583</v>
       </c>
@@ -38398,7 +38402,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="530" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>584</v>
       </c>
@@ -38436,7 +38440,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="531" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>585</v>
       </c>
@@ -38474,7 +38478,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="532" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>586</v>
       </c>
@@ -38542,7 +38546,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="533" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>587</v>
       </c>
@@ -38580,7 +38584,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="534" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>588</v>
       </c>
@@ -38618,7 +38622,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="535" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>589</v>
       </c>
@@ -38656,7 +38660,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="536" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>590</v>
       </c>
@@ -38694,7 +38698,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="537" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>591</v>
       </c>
@@ -38732,7 +38736,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="538" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>592</v>
       </c>
@@ -38770,7 +38774,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="539" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>593</v>
       </c>
@@ -38823,7 +38827,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="540" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>594</v>
       </c>
@@ -38861,7 +38865,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="541" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>595</v>
       </c>
@@ -38899,7 +38903,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="542" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>596</v>
       </c>
@@ -38937,7 +38941,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="543" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>597</v>
       </c>
@@ -38975,7 +38979,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="544" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>598</v>
       </c>
@@ -39013,7 +39017,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="545" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>599</v>
       </c>
@@ -39137,7 +39141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>600</v>
       </c>
@@ -39214,7 +39218,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="548" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>601</v>
       </c>
@@ -39252,7 +39256,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="549" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>602</v>
       </c>
@@ -39290,7 +39294,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="550" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>603</v>
       </c>
@@ -39349,7 +39353,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="551" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>604</v>
       </c>
@@ -39387,7 +39391,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="552" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
         <v>605</v>
       </c>
@@ -39425,7 +39429,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="553" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>606</v>
       </c>
@@ -39475,7 +39479,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="554" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>607</v>
       </c>
@@ -39567,7 +39571,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="555" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>608</v>
       </c>
@@ -39608,7 +39612,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="556" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>609</v>
       </c>
@@ -39646,7 +39650,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="557" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>610</v>
       </c>
@@ -39696,7 +39700,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="558" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>611</v>
       </c>
@@ -39755,7 +39759,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="559" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
         <v>612</v>
       </c>
@@ -39832,7 +39836,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="560" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>613</v>
       </c>
@@ -39870,7 +39874,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="561" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>614</v>
       </c>
@@ -39965,7 +39969,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="562" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>615</v>
       </c>
@@ -40003,7 +40007,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="563" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>616</v>
       </c>
@@ -40047,7 +40051,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="564" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>617</v>
       </c>
@@ -40085,7 +40089,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="565" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>618</v>
       </c>
@@ -40177,7 +40181,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="566" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>619</v>
       </c>
@@ -40215,7 +40219,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="567" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>620</v>
       </c>
@@ -40253,7 +40257,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="568" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>621</v>
       </c>
@@ -40339,7 +40343,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="569" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>622</v>
       </c>
@@ -40377,7 +40381,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="570" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>623</v>
       </c>
@@ -40421,7 +40425,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="571" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B571" t="s">
         <v>624</v>
       </c>
@@ -40495,7 +40499,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="572" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
         <v>625</v>
       </c>
@@ -40533,7 +40537,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="573" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>626</v>
       </c>
@@ -40628,7 +40632,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="574" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>627</v>
       </c>
@@ -40711,7 +40715,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="575" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B575" t="s">
         <v>628</v>
       </c>
@@ -40761,7 +40765,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="576" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>629</v>
       </c>
@@ -40802,7 +40806,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="577" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B577" t="s">
         <v>630</v>
       </c>
@@ -40840,7 +40844,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="578" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B578" t="s">
         <v>631</v>
       </c>
@@ -40878,7 +40882,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="579" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>632</v>
       </c>
@@ -40916,7 +40920,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="580" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>633</v>
       </c>
@@ -40960,7 +40964,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="581" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B581" t="s">
         <v>634</v>
       </c>
@@ -40998,7 +41002,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="582" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>635</v>
       </c>
@@ -41036,7 +41040,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="583" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>636</v>
       </c>
@@ -41074,7 +41078,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="584" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B584" t="s">
         <v>637</v>
       </c>
@@ -41112,7 +41116,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="585" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>638</v>
       </c>
@@ -41171,7 +41175,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="586" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>639</v>
       </c>
@@ -41230,7 +41234,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="587" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>640</v>
       </c>
@@ -41283,7 +41287,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="588" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>641</v>
       </c>
@@ -41327,7 +41331,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="589" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>642</v>
       </c>
@@ -41374,7 +41378,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="590" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
         <v>643</v>
       </c>
@@ -41412,7 +41416,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="591" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>644</v>
       </c>
@@ -41450,7 +41454,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="592" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>645</v>
       </c>
@@ -41515,7 +41519,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="593" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>646</v>
       </c>
@@ -41592,7 +41596,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="594" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
         <v>647</v>
       </c>
@@ -41627,7 +41631,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="595" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>648</v>
       </c>
@@ -41665,7 +41669,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="596" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>649</v>
       </c>
@@ -41703,7 +41707,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="597" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>650</v>
       </c>
@@ -41741,7 +41745,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="598" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>651</v>
       </c>
@@ -41779,7 +41783,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="599" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B599" t="s">
         <v>652</v>
       </c>
@@ -41829,7 +41833,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="600" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>653</v>
       </c>
@@ -41867,7 +41871,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="601" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>654</v>
       </c>
@@ -41917,7 +41921,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="602" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B602" t="s">
         <v>655</v>
       </c>
@@ -41955,7 +41959,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="603" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
         <v>656</v>
       </c>
@@ -41993,7 +41997,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="604" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
         <v>657</v>
       </c>
@@ -42076,7 +42080,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="605" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B605" t="s">
         <v>658</v>
       </c>
@@ -42114,7 +42118,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="606" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B606" t="s">
         <v>659</v>
       </c>
@@ -42152,7 +42156,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="607" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B607" t="s">
         <v>660</v>
       </c>
@@ -42214,7 +42218,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="608" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B608" t="s">
         <v>661</v>
       </c>
@@ -42264,7 +42268,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="609" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B609" t="s">
         <v>662</v>
       </c>
@@ -42302,7 +42306,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="610" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B610" t="s">
         <v>663</v>
       </c>
@@ -42340,7 +42344,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="611" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B611" t="s">
         <v>664</v>
       </c>
@@ -42390,7 +42394,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="612" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B612" t="s">
         <v>665</v>
       </c>
@@ -42428,7 +42432,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="613" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B613" t="s">
         <v>666</v>
       </c>
@@ -42502,7 +42506,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="614" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B614" t="s">
         <v>667</v>
       </c>
@@ -42540,7 +42544,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="615" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B615" t="s">
         <v>668</v>
       </c>
@@ -42578,7 +42582,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="616" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B616" t="s">
         <v>669</v>
       </c>
@@ -42616,7 +42620,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="617" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B617" t="s">
         <v>670</v>
       </c>
@@ -42684,7 +42688,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="618" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B618" t="s">
         <v>671</v>
       </c>
@@ -42722,7 +42726,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="619" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B619" t="s">
         <v>672</v>
       </c>
@@ -42760,7 +42764,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="620" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
         <v>673</v>
       </c>
@@ -42798,7 +42802,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="621" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B621" t="s">
         <v>674</v>
       </c>
@@ -42884,7 +42888,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="622" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B622" t="s">
         <v>675</v>
       </c>
@@ -42922,7 +42926,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="623" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B623" t="s">
         <v>676</v>
       </c>
@@ -42993,7 +42997,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="624" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B624" t="s">
         <v>677</v>
       </c>
@@ -43031,7 +43035,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="625" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B625" t="s">
         <v>678</v>
       </c>
@@ -43069,7 +43073,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="626" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B626" t="s">
         <v>679</v>
       </c>
@@ -43107,7 +43111,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="627" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B627" t="s">
         <v>680</v>
       </c>
@@ -43145,7 +43149,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="628" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B628" t="s">
         <v>681</v>
       </c>
@@ -43204,7 +43208,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="629" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B629" t="s">
         <v>682</v>
       </c>
@@ -43260,7 +43264,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="630" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B630" t="s">
         <v>683</v>
       </c>
@@ -43328,7 +43332,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="631" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B631" t="s">
         <v>684</v>
       </c>
@@ -43372,7 +43376,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="632" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B632" t="s">
         <v>685</v>
       </c>
@@ -43410,7 +43414,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="633" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B633" t="s">
         <v>686</v>
       </c>
@@ -43448,7 +43452,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="634" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B634" t="s">
         <v>687</v>
       </c>
@@ -43528,7 +43532,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="635" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B635" t="s">
         <v>688</v>
       </c>
@@ -43590,7 +43594,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="636" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B636" t="s">
         <v>689</v>
       </c>
@@ -43628,7 +43632,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="637" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B637" t="s">
         <v>690</v>
       </c>
@@ -43666,7 +43670,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="638" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B638" t="s">
         <v>691</v>
       </c>
@@ -43725,7 +43729,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="639" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B639" t="s">
         <v>692</v>
       </c>
@@ -43769,7 +43773,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="640" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B640" t="s">
         <v>693</v>
       </c>
@@ -43807,7 +43811,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="641" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B641" t="s">
         <v>694</v>
       </c>
@@ -43866,7 +43870,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="642" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B642" t="s">
         <v>695</v>
       </c>
@@ -43916,7 +43920,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="643" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B643" t="s">
         <v>696</v>
       </c>
@@ -43954,7 +43958,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="644" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B644" t="s">
         <v>697</v>
       </c>
@@ -44055,7 +44059,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="645" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B645" t="s">
         <v>698</v>
       </c>
@@ -44102,7 +44106,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="646" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B646" t="s">
         <v>699</v>
       </c>
@@ -44140,7 +44144,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="647" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B647" t="s">
         <v>700</v>
       </c>
@@ -44178,7 +44182,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="648" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B648" t="s">
         <v>701</v>
       </c>
@@ -44216,7 +44220,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="649" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B649" t="s">
         <v>702</v>
       </c>
@@ -44254,7 +44258,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="650" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B650" t="s">
         <v>703</v>
       </c>
@@ -44292,7 +44296,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="651" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B651" t="s">
         <v>704</v>
       </c>
@@ -44342,7 +44346,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="652" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B652" t="s">
         <v>705</v>
       </c>
@@ -44380,7 +44384,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="653" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B653" t="s">
         <v>706</v>
       </c>
@@ -44436,7 +44440,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="654" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B654" t="s">
         <v>707</v>
       </c>
@@ -44486,7 +44490,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="655" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B655" t="s">
         <v>708</v>
       </c>
@@ -44524,7 +44528,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="656" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B656" t="s">
         <v>709</v>
       </c>
@@ -44562,7 +44566,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="657" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B657" t="s">
         <v>710</v>
       </c>
@@ -44606,7 +44610,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="658" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B658" t="s">
         <v>711</v>
       </c>
@@ -44644,7 +44648,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="659" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B659" t="s">
         <v>712</v>
       </c>
@@ -44682,7 +44686,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="660" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B660" t="s">
         <v>713</v>
       </c>
@@ -44720,7 +44724,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="661" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B661" t="s">
         <v>714</v>
       </c>
@@ -44767,7 +44771,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="662" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B662" t="s">
         <v>715</v>
       </c>
@@ -44805,7 +44809,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="663" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B663" t="s">
         <v>716</v>
       </c>
@@ -44843,7 +44847,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="664" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B664" t="s">
         <v>717</v>
       </c>
@@ -44881,7 +44885,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="665" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B665" t="s">
         <v>718</v>
       </c>
@@ -44925,7 +44929,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="666" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B666" t="s">
         <v>719</v>
       </c>
@@ -44963,7 +44967,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="667" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B667" t="s">
         <v>720</v>
       </c>
@@ -45001,7 +45005,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="668" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B668" t="s">
         <v>721</v>
       </c>
@@ -45039,7 +45043,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="669" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B669" t="s">
         <v>722</v>
       </c>
@@ -45077,7 +45081,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="670" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B670" t="s">
         <v>723</v>
       </c>
@@ -45115,7 +45119,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="671" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B671" t="s">
         <v>724</v>
       </c>
@@ -45165,7 +45169,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="672" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B672" t="s">
         <v>725</v>
       </c>
@@ -45203,7 +45207,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="673" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B673" t="s">
         <v>726</v>
       </c>
@@ -45241,7 +45245,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="674" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B674" t="s">
         <v>727</v>
       </c>
@@ -45336,7 +45340,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="675" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B675" t="s">
         <v>728</v>
       </c>
@@ -45374,7 +45378,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="676" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B676" t="s">
         <v>729</v>
       </c>
@@ -45412,7 +45416,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="677" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B677" t="s">
         <v>730</v>
       </c>
@@ -45486,7 +45490,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="678" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B678" t="s">
         <v>731</v>
       </c>
@@ -45524,7 +45528,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="679" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B679" t="s">
         <v>732</v>
       </c>
@@ -45562,7 +45566,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="680" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B680" t="s">
         <v>733</v>
       </c>
@@ -45600,7 +45604,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="681" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B681" t="s">
         <v>734</v>
       </c>
@@ -45638,7 +45642,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="682" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B682" t="s">
         <v>735</v>
       </c>
@@ -45697,7 +45701,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="683" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B683" t="s">
         <v>736</v>
       </c>
@@ -45735,7 +45739,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="684" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B684" t="s">
         <v>737</v>
       </c>
@@ -45773,7 +45777,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="685" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B685" t="s">
         <v>738</v>
       </c>
@@ -45817,7 +45821,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="686" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B686" t="s">
         <v>739</v>
       </c>
@@ -45855,7 +45859,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="687" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B687" t="s">
         <v>740</v>
       </c>
@@ -45893,7 +45897,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="688" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B688" t="s">
         <v>741</v>
       </c>
@@ -45931,7 +45935,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="689" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B689" t="s">
         <v>742</v>
       </c>
@@ -45969,7 +45973,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="690" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B690" t="s">
         <v>743</v>
       </c>
@@ -46007,7 +46011,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="691" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B691" t="s">
         <v>744</v>
       </c>
@@ -46045,7 +46049,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="692" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B692" t="s">
         <v>745</v>
       </c>
@@ -46107,7 +46111,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="693" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B693" t="s">
         <v>746</v>
       </c>
@@ -46145,7 +46149,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="694" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B694" t="s">
         <v>747</v>
       </c>
@@ -46183,7 +46187,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="695" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B695" t="s">
         <v>748</v>
       </c>
@@ -46221,7 +46225,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="696" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B696" t="s">
         <v>749</v>
       </c>
@@ -46280,7 +46284,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="697" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B697" t="s">
         <v>750</v>
       </c>
@@ -46324,7 +46328,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="698" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B698" t="s">
         <v>751</v>
       </c>
@@ -46362,7 +46366,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="699" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B699" t="s">
         <v>752</v>
       </c>
@@ -46400,7 +46404,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="700" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B700" t="s">
         <v>753</v>
       </c>
@@ -46474,7 +46478,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="701" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
         <v>754</v>
       </c>
@@ -46512,7 +46516,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="702" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B702" t="s">
         <v>755</v>
       </c>
@@ -46553,7 +46557,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="703" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B703" t="s">
         <v>756</v>
       </c>
@@ -46591,7 +46595,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="704" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B704" t="s">
         <v>757</v>
       </c>
@@ -46635,7 +46639,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="705" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B705" t="s">
         <v>758</v>
       </c>
@@ -46673,7 +46677,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="706" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B706" t="s">
         <v>759</v>
       </c>
@@ -46711,7 +46715,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="707" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B707" t="s">
         <v>760</v>
       </c>
@@ -46749,7 +46753,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="708" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B708" t="s">
         <v>761</v>
       </c>
@@ -46787,7 +46791,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="709" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B709" t="s">
         <v>762</v>
       </c>
@@ -46846,7 +46850,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="710" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B710" t="s">
         <v>763</v>
       </c>
@@ -46884,7 +46888,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="711" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B711" t="s">
         <v>764</v>
       </c>
@@ -46922,7 +46926,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="712" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B712" t="s">
         <v>765</v>
       </c>
@@ -46984,7 +46988,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="713" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B713" t="s">
         <v>766</v>
       </c>
@@ -47028,7 +47032,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="714" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B714" t="s">
         <v>767</v>
       </c>
@@ -47072,7 +47076,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="715" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B715" t="s">
         <v>768</v>
       </c>
@@ -47116,7 +47120,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="716" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B716" t="s">
         <v>769</v>
       </c>
@@ -47175,7 +47179,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="717" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B717" t="s">
         <v>770</v>
       </c>
@@ -47234,7 +47238,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="718" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B718" t="s">
         <v>771</v>
       </c>
@@ -47272,7 +47276,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="719" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B719" t="s">
         <v>772</v>
       </c>
@@ -47316,7 +47320,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="720" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B720" t="s">
         <v>773</v>
       </c>
@@ -47354,7 +47358,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="721" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B721" t="s">
         <v>774</v>
       </c>
@@ -47392,7 +47396,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="722" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B722" t="s">
         <v>775</v>
       </c>
@@ -47493,7 +47497,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="723" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B723" t="s">
         <v>776</v>
       </c>
@@ -47531,7 +47535,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="724" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B724" t="s">
         <v>777</v>
       </c>
@@ -47569,7 +47573,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="725" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B725" t="s">
         <v>778</v>
       </c>
@@ -47607,7 +47611,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="726" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B726" t="s">
         <v>779</v>
       </c>
@@ -47657,7 +47661,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="727" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B727" t="s">
         <v>780</v>
       </c>
@@ -47695,7 +47699,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="728" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B728" t="s">
         <v>781</v>
       </c>
@@ -47739,7 +47743,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="729" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B729" t="s">
         <v>782</v>
       </c>
@@ -47783,7 +47787,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="730" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B730" t="s">
         <v>783</v>
       </c>
@@ -47821,7 +47825,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="731" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B731" t="s">
         <v>784</v>
       </c>
@@ -47859,7 +47863,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="732" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B732" t="s">
         <v>785</v>
       </c>
@@ -47897,7 +47901,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="733" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B733" t="s">
         <v>786</v>
       </c>
@@ -47935,7 +47939,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="734" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B734" t="s">
         <v>787</v>
       </c>
@@ -47973,7 +47977,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="735" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B735" t="s">
         <v>788</v>
       </c>
@@ -48011,7 +48015,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="736" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B736" t="s">
         <v>789</v>
       </c>
@@ -48049,7 +48053,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="737" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B737" t="s">
         <v>790</v>
       </c>
@@ -48090,7 +48094,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="738" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B738" t="s">
         <v>791</v>
       </c>
@@ -48140,7 +48144,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="739" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B739" t="s">
         <v>792</v>
       </c>
@@ -48187,7 +48191,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="740" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B740" t="s">
         <v>793</v>
       </c>
@@ -48264,7 +48268,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="741" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B741" t="s">
         <v>794</v>
       </c>
@@ -48302,7 +48306,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="742" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B742" t="s">
         <v>795</v>
       </c>
@@ -48340,7 +48344,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="743" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B743" t="s">
         <v>796</v>
       </c>
@@ -48378,7 +48382,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="744" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B744" t="s">
         <v>797</v>
       </c>
@@ -48416,7 +48420,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="745" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B745" t="s">
         <v>798</v>
       </c>
@@ -48454,7 +48458,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="746" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B746" t="s">
         <v>799</v>
       </c>
@@ -48492,7 +48496,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="747" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B747" t="s">
         <v>800</v>
       </c>
@@ -48536,7 +48540,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="748" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B748" t="s">
         <v>801</v>
       </c>
@@ -48574,7 +48578,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="749" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B749" t="s">
         <v>802</v>
       </c>
@@ -48612,7 +48616,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="750" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B750" t="s">
         <v>803</v>
       </c>
@@ -48650,7 +48654,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="751" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B751" t="s">
         <v>804</v>
       </c>
@@ -48688,7 +48692,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="752" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B752" t="s">
         <v>805</v>
       </c>
@@ -48726,7 +48730,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="753" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B753" t="s">
         <v>806</v>
       </c>
@@ -48770,7 +48774,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="754" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B754" t="s">
         <v>807</v>
       </c>
@@ -48808,7 +48812,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="755" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B755" t="s">
         <v>808</v>
       </c>
@@ -48876,7 +48880,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="756" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
         <v>809</v>
       </c>
@@ -48914,7 +48918,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="757" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
         <v>810</v>
       </c>
@@ -48952,7 +48956,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="758" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B758" t="s">
         <v>811</v>
       </c>
@@ -48990,7 +48994,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="759" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B759" t="s">
         <v>812</v>
       </c>
@@ -49028,7 +49032,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="760" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B760" t="s">
         <v>813</v>
       </c>
@@ -49066,7 +49070,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="761" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
         <v>814</v>
       </c>
@@ -49137,7 +49141,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="762" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B762" t="s">
         <v>814</v>
       </c>
@@ -49178,7 +49182,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="763" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B763" t="s">
         <v>815</v>
       </c>
@@ -49216,7 +49220,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="764" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B764" t="s">
         <v>816</v>
       </c>
@@ -49254,7 +49258,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="765" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
         <v>817</v>
       </c>
@@ -49396,7 +49400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B767" t="s">
         <v>819</v>
       </c>
@@ -49446,7 +49450,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="768" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B768" t="s">
         <v>819</v>
       </c>
@@ -49502,7 +49506,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="769" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
         <v>820</v>
       </c>
@@ -49540,7 +49544,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="770" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B770" t="s">
         <v>821</v>
       </c>
@@ -49590,7 +49594,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="771" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B771" t="s">
         <v>822</v>
       </c>
@@ -49628,7 +49632,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="772" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
         <v>823</v>
       </c>
@@ -49666,7 +49670,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="773" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B773" t="s">
         <v>824</v>
       </c>
@@ -49716,7 +49720,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="774" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B774" t="s">
         <v>825</v>
       </c>
@@ -49772,7 +49776,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="775" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B775" t="s">
         <v>826</v>
       </c>
@@ -49810,7 +49814,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="776" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B776" t="s">
         <v>827</v>
       </c>
@@ -49857,7 +49861,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="777" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B777" t="s">
         <v>828</v>
       </c>
@@ -49901,7 +49905,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="778" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B778" t="s">
         <v>829</v>
       </c>
@@ -49939,7 +49943,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="779" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B779" t="s">
         <v>830</v>
       </c>
@@ -49977,7 +49981,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="780" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B780" t="s">
         <v>831</v>
       </c>
@@ -50069,7 +50073,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="781" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B781" t="s">
         <v>832</v>
       </c>
@@ -50113,7 +50117,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="782" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
         <v>833</v>
       </c>
@@ -50151,7 +50155,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="783" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B783" t="s">
         <v>834</v>
       </c>
@@ -50189,7 +50193,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="784" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B784" t="s">
         <v>835</v>
       </c>
@@ -50227,7 +50231,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="785" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B785" t="s">
         <v>836</v>
       </c>
@@ -50265,7 +50269,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="786" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B786" t="s">
         <v>837</v>
       </c>
@@ -50303,7 +50307,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="787" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
         <v>838</v>
       </c>
@@ -50368,7 +50372,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="788" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B788" t="s">
         <v>839</v>
       </c>
@@ -50463,7 +50467,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="789" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B789" t="s">
         <v>840</v>
       </c>
@@ -50501,7 +50505,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="790" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B790" t="s">
         <v>841</v>
       </c>
@@ -50554,7 +50558,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="791" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B791" t="s">
         <v>842</v>
       </c>
@@ -50592,7 +50596,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="792" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B792" t="s">
         <v>843</v>
       </c>
@@ -50630,7 +50634,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="793" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B793" t="s">
         <v>844</v>
       </c>
@@ -50668,7 +50672,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="794" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B794" t="s">
         <v>845</v>
       </c>
@@ -50712,7 +50716,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="795" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B795" t="s">
         <v>846</v>
       </c>
@@ -50762,7 +50766,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="796" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B796" t="s">
         <v>847</v>
       </c>
@@ -50800,7 +50804,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="797" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
         <v>848</v>
       </c>
@@ -50844,7 +50848,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="798" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B798" t="s">
         <v>849</v>
       </c>
@@ -50882,7 +50886,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="799" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B799" t="s">
         <v>850</v>
       </c>
@@ -50920,7 +50924,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="800" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B800" t="s">
         <v>851</v>
       </c>
@@ -50967,7 +50971,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="801" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B801" t="s">
         <v>852</v>
       </c>
@@ -51005,7 +51009,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="802" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
         <v>853</v>
       </c>
@@ -51043,7 +51047,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="803" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B803" t="s">
         <v>854</v>
       </c>
@@ -51081,7 +51085,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="804" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B804" t="s">
         <v>855</v>
       </c>
@@ -51119,7 +51123,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="805" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B805" t="s">
         <v>856</v>
       </c>
@@ -51157,7 +51161,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="806" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B806" t="s">
         <v>857</v>
       </c>
@@ -51195,7 +51199,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="807" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B807" t="s">
         <v>858</v>
       </c>
@@ -51245,7 +51249,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="808" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B808" t="s">
         <v>859</v>
       </c>
@@ -51298,7 +51302,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="809" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
         <v>860</v>
       </c>
@@ -51360,7 +51364,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="810" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B810" t="s">
         <v>861</v>
       </c>
@@ -51407,7 +51411,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="811" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B811" t="s">
         <v>862</v>
       </c>
@@ -51454,7 +51458,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="812" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B812" t="s">
         <v>863</v>
       </c>
@@ -51492,7 +51496,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="813" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B813" t="s">
         <v>864</v>
       </c>
@@ -51551,7 +51555,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="814" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B814" t="s">
         <v>865</v>
       </c>
@@ -51589,7 +51593,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="815" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
         <v>866</v>
       </c>
@@ -51636,7 +51640,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="816" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B816" t="s">
         <v>867</v>
       </c>
@@ -51674,7 +51678,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="817" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B817" t="s">
         <v>868</v>
       </c>
@@ -51712,7 +51716,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="818" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B818" t="s">
         <v>869</v>
       </c>
@@ -51750,7 +51754,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="819" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B819" t="s">
         <v>870</v>
       </c>
@@ -51812,7 +51816,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="820" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B820" t="s">
         <v>871</v>
       </c>
@@ -51850,7 +51854,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="821" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B821" t="s">
         <v>872</v>
       </c>
@@ -51888,7 +51892,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="822" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B822" t="s">
         <v>873</v>
       </c>
@@ -51923,7 +51927,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="823" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B823" t="s">
         <v>874</v>
       </c>
@@ -51961,7 +51965,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="824" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
         <v>875</v>
       </c>
@@ -52014,7 +52018,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="825" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B825" t="s">
         <v>876</v>
       </c>
@@ -52100,7 +52104,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="826" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B826" t="s">
         <v>877</v>
       </c>
@@ -52138,7 +52142,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="827" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B827" t="s">
         <v>878</v>
       </c>
@@ -52176,7 +52180,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="828" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B828" t="s">
         <v>879</v>
       </c>
@@ -52214,7 +52218,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="829" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B829" t="s">
         <v>880</v>
       </c>
@@ -52252,7 +52256,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="830" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B830" t="s">
         <v>881</v>
       </c>
@@ -52296,7 +52300,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="831" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B831" t="s">
         <v>882</v>
       </c>
@@ -52334,7 +52338,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="832" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B832" t="s">
         <v>883</v>
       </c>
@@ -52372,7 +52376,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="833" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B833" t="s">
         <v>884</v>
       </c>
@@ -52410,7 +52414,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="834" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B834" t="s">
         <v>885</v>
       </c>
@@ -52448,7 +52452,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="835" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B835" t="s">
         <v>886</v>
       </c>
@@ -52486,7 +52490,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="836" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B836" t="s">
         <v>887</v>
       </c>
@@ -52524,7 +52528,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="837" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B837" t="s">
         <v>888</v>
       </c>
@@ -52577,7 +52581,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="838" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B838" t="s">
         <v>889</v>
       </c>
@@ -52633,7 +52637,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="839" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B839" t="s">
         <v>890</v>
       </c>
@@ -52689,7 +52693,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="840" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B840" t="s">
         <v>891</v>
       </c>
@@ -52730,7 +52734,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="841" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B841" t="s">
         <v>892</v>
       </c>
@@ -52804,7 +52808,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="842" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B842" t="s">
         <v>893</v>
       </c>
@@ -52863,7 +52867,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="843" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B843" t="s">
         <v>894</v>
       </c>
@@ -52901,7 +52905,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="844" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B844" t="s">
         <v>895</v>
       </c>
@@ -52945,7 +52949,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="845" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B845" t="s">
         <v>896</v>
       </c>
@@ -52989,7 +52993,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="846" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B846" t="s">
         <v>897</v>
       </c>
@@ -53027,7 +53031,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="847" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B847" t="s">
         <v>898</v>
       </c>
@@ -53065,7 +53069,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="848" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B848" t="s">
         <v>899</v>
       </c>
@@ -53121,7 +53125,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="849" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B849" t="s">
         <v>900</v>
       </c>
@@ -53162,7 +53166,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="850" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B850" t="s">
         <v>901</v>
       </c>
@@ -53257,7 +53261,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="851" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B851" t="s">
         <v>902</v>
       </c>
@@ -53298,7 +53302,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="852" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B852" t="s">
         <v>903</v>
       </c>
@@ -53345,7 +53349,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="853" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
         <v>904</v>
       </c>
@@ -53386,7 +53390,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="854" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
         <v>905</v>
       </c>
@@ -53424,7 +53428,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="855" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B855" t="s">
         <v>906</v>
       </c>
@@ -53465,7 +53469,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="856" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B856" t="s">
         <v>907</v>
       </c>
@@ -53557,7 +53561,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="857" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B857" t="s">
         <v>908</v>
       </c>
@@ -53595,7 +53599,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="858" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B858" t="s">
         <v>909</v>
       </c>
@@ -53639,7 +53643,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="859" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B859" t="s">
         <v>910</v>
       </c>
@@ -53680,7 +53684,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="860" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B860" t="s">
         <v>911</v>
       </c>
@@ -53724,7 +53728,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="861" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B861" t="s">
         <v>912</v>
       </c>
@@ -53762,7 +53766,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="862" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B862" t="s">
         <v>913</v>
       </c>
@@ -53824,7 +53828,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="863" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B863" t="s">
         <v>914</v>
       </c>
@@ -53862,7 +53866,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="864" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B864" t="s">
         <v>915</v>
       </c>
@@ -53930,7 +53934,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="865" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B865" t="s">
         <v>916</v>
       </c>
@@ -54010,7 +54014,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="866" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B866" t="s">
         <v>917</v>
       </c>
@@ -54066,7 +54070,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="867" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B867" t="s">
         <v>918</v>
       </c>
@@ -54125,7 +54129,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="868" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
         <v>919</v>
       </c>
@@ -54163,7 +54167,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="869" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B869" t="s">
         <v>920</v>
       </c>
@@ -54207,7 +54211,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="870" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B870" t="s">
         <v>921</v>
       </c>
@@ -54251,7 +54255,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="871" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B871" t="s">
         <v>922</v>
       </c>
@@ -54340,7 +54344,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="872" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
         <v>923</v>
       </c>
@@ -54411,7 +54415,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="873" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B873" t="s">
         <v>924</v>
       </c>
@@ -54461,7 +54465,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="874" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
         <v>925</v>
       </c>
@@ -54499,7 +54503,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="875" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B875" t="s">
         <v>926</v>
       </c>
@@ -54537,7 +54541,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="876" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B876" t="s">
         <v>927</v>
       </c>
@@ -54593,7 +54597,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="877" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B877" t="s">
         <v>928</v>
       </c>
@@ -54637,7 +54641,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="878" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B878" t="s">
         <v>929</v>
       </c>
@@ -54681,7 +54685,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="879" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B879" t="s">
         <v>930</v>
       </c>
@@ -54737,7 +54741,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="880" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B880" t="s">
         <v>931</v>
       </c>
@@ -54775,7 +54779,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="881" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B881" t="s">
         <v>932</v>
       </c>
@@ -54858,7 +54862,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="882" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B882" t="s">
         <v>933</v>
       </c>
@@ -54902,7 +54906,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="883" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B883" t="s">
         <v>934</v>
       </c>
@@ -54979,7 +54983,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="884" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B884" t="s">
         <v>935</v>
       </c>
@@ -55029,7 +55033,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="885" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B885" t="s">
         <v>936</v>
       </c>
@@ -55094,7 +55098,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="886" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B886" t="s">
         <v>937</v>
       </c>
@@ -55138,7 +55142,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="887" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B887" t="s">
         <v>938</v>
       </c>
@@ -55179,7 +55183,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="888" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B888" t="s">
         <v>939</v>
       </c>
@@ -55226,7 +55230,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="889" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B889" t="s">
         <v>940</v>
       </c>
@@ -55276,7 +55280,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="890" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B890" t="s">
         <v>941</v>
       </c>
@@ -55329,7 +55333,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="891" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B891" t="s">
         <v>942</v>
       </c>
@@ -55370,7 +55374,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="892" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B892" t="s">
         <v>943</v>
       </c>
@@ -55414,7 +55418,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="893" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B893" t="s">
         <v>944</v>
       </c>
@@ -55464,7 +55468,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="894" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B894" t="s">
         <v>945</v>
       </c>
@@ -55505,7 +55509,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="895" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B895" t="s">
         <v>946</v>
       </c>
@@ -55576,7 +55580,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="896" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B896" t="s">
         <v>947</v>
       </c>
@@ -55674,7 +55678,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="897" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B897" t="s">
         <v>948</v>
       </c>
@@ -55733,7 +55737,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="898" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B898" t="s">
         <v>949</v>
       </c>
@@ -55786,7 +55790,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="899" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
         <v>950</v>
       </c>
@@ -55842,7 +55846,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="900" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B900" t="s">
         <v>951</v>
       </c>
@@ -55892,7 +55896,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="901" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B901" t="s">
         <v>952</v>
       </c>
@@ -55957,7 +55961,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="902" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B902" t="s">
         <v>953</v>
       </c>
@@ -56007,7 +56011,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="903" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B903" t="s">
         <v>954</v>
       </c>
@@ -56096,7 +56100,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="904" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B904" t="s">
         <v>955</v>
       </c>
@@ -56152,7 +56156,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="905" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B905" t="s">
         <v>956</v>
       </c>
@@ -56196,7 +56200,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="906" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B906" t="s">
         <v>957</v>
       </c>
@@ -56258,7 +56262,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="907" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B907" t="s">
         <v>958</v>
       </c>
@@ -56302,7 +56306,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="908" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B908" t="s">
         <v>959</v>
       </c>
@@ -56394,7 +56398,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="909" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B909" t="s">
         <v>960</v>
       </c>
@@ -56441,7 +56445,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="910" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B910" t="s">
         <v>961</v>
       </c>
@@ -56539,7 +56543,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="911" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B911" t="s">
         <v>962</v>
       </c>
@@ -56583,7 +56587,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="912" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B912" t="s">
         <v>963</v>
       </c>
@@ -56621,7 +56625,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="913" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B913" t="s">
         <v>964</v>
       </c>
@@ -56716,7 +56720,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="914" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B914" t="s">
         <v>965</v>
       </c>
@@ -56766,7 +56770,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="915" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B915" t="s">
         <v>966</v>
       </c>
@@ -56819,7 +56823,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="916" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B916" t="s">
         <v>967</v>
       </c>
@@ -56860,7 +56864,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="917" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B917" t="s">
         <v>968</v>
       </c>
@@ -56904,7 +56908,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="918" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B918" t="s">
         <v>969</v>
       </c>
@@ -56966,7 +56970,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="919" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B919" t="s">
         <v>970</v>
       </c>
@@ -57025,7 +57029,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="920" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B920" t="s">
         <v>971</v>
       </c>
@@ -57105,7 +57109,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="921" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B921" t="s">
         <v>972</v>
       </c>
@@ -57155,7 +57159,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="922" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B922" t="s">
         <v>973</v>
       </c>
@@ -57214,7 +57218,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="923" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B923" t="s">
         <v>974</v>
       </c>
@@ -57267,7 +57271,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="924" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B924" t="s">
         <v>975</v>
       </c>
@@ -57326,7 +57330,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="925" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B925" t="s">
         <v>976</v>
       </c>
@@ -57376,7 +57380,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="926" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B926" t="s">
         <v>977</v>
       </c>
@@ -57429,7 +57433,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="927" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B927" t="s">
         <v>978</v>
       </c>
@@ -57479,7 +57483,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="928" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B928" t="s">
         <v>979</v>
       </c>
@@ -57538,7 +57542,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="929" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B929" t="s">
         <v>980</v>
       </c>
@@ -57597,7 +57601,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="930" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B930" t="s">
         <v>981</v>
       </c>
@@ -57671,7 +57675,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="931" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B931" t="s">
         <v>982</v>
       </c>
@@ -57748,7 +57752,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="932" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B932" t="s">
         <v>983</v>
       </c>
@@ -57795,7 +57799,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="933" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B933" t="s">
         <v>984</v>
       </c>
@@ -57854,7 +57858,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="934" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B934" t="s">
         <v>985</v>
       </c>
@@ -57904,7 +57908,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="935" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
         <v>986</v>
       </c>
@@ -57954,7 +57958,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="936" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B936" t="s">
         <v>987</v>
       </c>
@@ -58043,7 +58047,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="937" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B937" t="s">
         <v>988</v>
       </c>
@@ -58120,7 +58124,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="938" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B938" t="s">
         <v>989</v>
       </c>
@@ -58167,7 +58171,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="939" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B939" t="s">
         <v>990</v>
       </c>
@@ -58241,7 +58245,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="940" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B940" t="s">
         <v>991</v>
       </c>
@@ -58300,7 +58304,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="941" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B941" t="s">
         <v>992</v>
       </c>
@@ -58401,7 +58405,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="942" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B942" t="s">
         <v>993</v>
       </c>
@@ -58508,7 +58512,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="943" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B943" t="s">
         <v>994</v>
       </c>
@@ -58558,7 +58562,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="944" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B944" t="s">
         <v>995</v>
       </c>
@@ -58608,7 +58612,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="945" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B945" t="s">
         <v>996</v>
       </c>
@@ -58700,7 +58704,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="946" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
         <v>997</v>
       </c>
@@ -58774,7 +58778,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="947" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B947" t="s">
         <v>998</v>
       </c>
@@ -58833,7 +58837,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="948" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B948" t="s">
         <v>999</v>
       </c>
@@ -58925,7 +58929,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="949" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B949" t="s">
         <v>1000</v>
       </c>
@@ -58963,7 +58967,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="950" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B950" t="s">
         <v>1001</v>
       </c>
@@ -59037,7 +59041,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="951" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B951" t="s">
         <v>1002</v>
       </c>
@@ -59132,7 +59136,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="952" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B952" t="s">
         <v>1003</v>
       </c>
@@ -59191,7 +59195,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="953" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B953" t="s">
         <v>1004</v>
       </c>
@@ -59265,7 +59269,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="954" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B954" t="s">
         <v>1005</v>
       </c>
@@ -59321,7 +59325,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="955" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B955" t="s">
         <v>1006</v>
       </c>
@@ -59380,7 +59384,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="956" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B956" t="s">
         <v>1007</v>
       </c>
@@ -59430,7 +59434,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="957" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B957" t="s">
         <v>1008</v>
       </c>
@@ -59477,7 +59481,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="958" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B958" t="s">
         <v>1009</v>
       </c>
@@ -59551,7 +59555,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="959" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B959" t="s">
         <v>1010</v>
       </c>
@@ -59610,7 +59614,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="960" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B960" t="s">
         <v>1011</v>
       </c>
@@ -59648,7 +59652,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="961" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B961" t="s">
         <v>1012</v>
       </c>
@@ -59734,7 +59738,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="962" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B962" t="s">
         <v>1013</v>
       </c>
@@ -59841,7 +59845,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="963" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B963" t="s">
         <v>1014</v>
       </c>
@@ -59900,7 +59904,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="964" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B964" t="s">
         <v>1015</v>
       </c>
@@ -59980,7 +59984,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="965" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B965" t="s">
         <v>1016</v>
       </c>
@@ -60030,7 +60034,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="966" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B966" t="s">
         <v>1017</v>
       </c>
@@ -60089,7 +60093,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="967" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B967" t="s">
         <v>1018</v>
       </c>
@@ -60178,7 +60182,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="968" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B968" t="s">
         <v>1019</v>
       </c>
@@ -60261,7 +60265,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="969" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B969" t="s">
         <v>1020</v>
       </c>
@@ -60326,7 +60330,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="970" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B970" t="s">
         <v>1021</v>
       </c>
@@ -60412,7 +60416,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="971" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B971" t="s">
         <v>1022</v>
       </c>
@@ -60462,7 +60466,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="972" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B972" t="s">
         <v>1023</v>
       </c>
@@ -60521,7 +60525,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="973" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B973" t="s">
         <v>1024</v>
       </c>
@@ -60571,7 +60575,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="974" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B974" t="s">
         <v>1025</v>
       </c>
@@ -60642,7 +60646,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="975" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B975" t="s">
         <v>1026</v>
       </c>
@@ -60692,7 +60696,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="976" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B976" t="s">
         <v>1027</v>
       </c>
@@ -60757,7 +60761,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="977" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B977" t="s">
         <v>1028</v>
       </c>
@@ -60843,7 +60847,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="978" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B978" t="s">
         <v>1029</v>
       </c>
@@ -60938,7 +60942,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="979" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B979" t="s">
         <v>1030</v>
       </c>
@@ -60994,7 +60998,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="980" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B980" t="s">
         <v>1031</v>
       </c>
@@ -61074,7 +61078,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="981" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B981" t="s">
         <v>1032</v>
       </c>
@@ -61181,7 +61185,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="982" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B982" t="s">
         <v>1033</v>
       </c>
@@ -61234,7 +61238,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="983" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B983" t="s">
         <v>1034</v>
       </c>
@@ -61293,7 +61297,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="984" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B984" t="s">
         <v>1035</v>
       </c>
@@ -61364,7 +61368,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="985" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B985" t="s">
         <v>1036</v>
       </c>
@@ -61441,7 +61445,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="986" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B986" t="s">
         <v>1037</v>
       </c>
@@ -61512,7 +61516,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="987" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B987" t="s">
         <v>1038</v>
       </c>
@@ -61607,7 +61611,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="988" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B988" t="s">
         <v>1039</v>
       </c>
@@ -61696,7 +61700,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="989" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B989" t="s">
         <v>1040</v>
       </c>
@@ -61770,7 +61774,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="990" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B990" t="s">
         <v>1041</v>
       </c>
@@ -61829,7 +61833,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="991" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B991" t="s">
         <v>1042</v>
       </c>
@@ -61894,7 +61898,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="992" spans="2:63" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="B992" t="s">
         <v>1043</v>
       </c>
